--- a/Minors.xlsx
+++ b/Minors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hamed/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hamed/Desktop/cornellMinors/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,18 +41,9 @@
     <t>Requirments</t>
   </si>
   <si>
-    <t>3000+ NES</t>
-  </si>
-  <si>
     <t>NES 1000+</t>
   </si>
   <si>
-    <t> NES 3203/ NES 3700/ NES 4200 , NES 4210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NES 2204 / NES 2212 / NES 4867/  NES 6201 / NES 6221 / NES 4639 </t>
-  </si>
-  <si>
     <t>History</t>
   </si>
   <si>
@@ -60,6 +51,15 @@
   </si>
   <si>
     <t>HIST 2000+</t>
+  </si>
+  <si>
+    <t>NES 3000+</t>
+  </si>
+  <si>
+    <t>NES 3203/NES 3700/NES 4200/NES 4210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NES 2204/NES 2212/NES 4867/NES 6201/NES 6221/NES 4639 </t>
   </si>
 </sst>
 </file>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -409,22 +409,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -432,30 +432,30 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Minors.xlsx
+++ b/Minors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Minor</t>
   </si>
@@ -60,13 +60,64 @@
   </si>
   <si>
     <t xml:space="preserve">NES 2204/NES 2212/NES 4867/NES 6201/NES 6221/NES 4639 </t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>CS 2110/CS2112</t>
+  </si>
+  <si>
+    <t>CS 3110/CS 3410/CS 3420/ECE 3140</t>
+  </si>
+  <si>
+    <t>CS 2800/ CS 3000+</t>
+  </si>
+  <si>
+    <t>CS 3000+</t>
+  </si>
+  <si>
+    <t>Classical Civilization</t>
+  </si>
+  <si>
+    <t>CLASS  3000+</t>
+  </si>
+  <si>
+    <t>CLASS  2000+</t>
+  </si>
+  <si>
+    <t>Classics</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>PHIL 1000+</t>
+  </si>
+  <si>
+    <t>PHIL 3000+</t>
+  </si>
+  <si>
+    <t>PHIL 2000+</t>
+  </si>
+  <si>
+    <t>Science and Technology Studies</t>
+  </si>
+  <si>
+    <t>STS 1000+</t>
+  </si>
+  <si>
+    <t>STS 3000+</t>
+  </si>
+  <si>
+    <t>STS 2000+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +129,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,14 +174,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,17 +474,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -458,6 +550,106 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
